--- a/Scrum/Retrospective/Retrospective Week 4.xlsx
+++ b/Scrum/Retrospective/Retrospective Week 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johannes\template\Scrum\Retrospective\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AE1E48-F1B2-487C-A206-C6752DF80A8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF159BFF-AB7A-4384-B9FF-D81AE47AD80C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Sprint Retrospective</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Adjustments for next Sprint Plan</t>
   </si>
   <si>
-    <t>Week 2</t>
-  </si>
-  <si>
     <t>Green Thumb</t>
   </si>
   <si>
@@ -82,49 +79,70 @@
     <t>I am a developer - I need this in order to be able to communicate with the client</t>
   </si>
   <si>
-    <t>Create Webserver using the OOP lecture</t>
-  </si>
-  <si>
-    <t>Nathan, Jari</t>
-  </si>
-  <si>
-    <t>Create Webserver using the Spring framework</t>
-  </si>
-  <si>
-    <t>Nick, Lukas</t>
-  </si>
-  <si>
-    <t>Johannes</t>
-  </si>
-  <si>
-    <t>Create Webserver using  method from Medium</t>
-  </si>
-  <si>
-    <t>When trying to implemnt the server and the client with the Spring framework, we encountered a lot of problems when trying to expand on the basic tutorial</t>
-  </si>
-  <si>
-    <t>We abandond Spring for this week</t>
-  </si>
-  <si>
     <t>Implementing Spring</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>This is the first one so no adjustments yet</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Week 3</t>
   </si>
   <si>
-    <t>We abandond this idea as the other solutions worked</t>
+    <t>I am a developer and I need a place to store my users data</t>
   </si>
   <si>
-    <t>We managed to create a working version however we found out that it does not use http so we will abandon this idea</t>
+    <t>Im a developer and I need to be to make sure that our customers can interact with the GUI</t>
   </si>
   <si>
-    <t>We managed to create a working version however we encountered a number of problems with it</t>
+    <t>I am a user and I am interested into how much CO2 I save when doing different actions</t>
   </si>
   <si>
-    <t>This is the first one so no adjustments yet</t>
+    <t>I am a user and I am interested in an interactive GUI</t>
+  </si>
+  <si>
+    <t>I am a user and I am interested in an interactive and bug-free GUI</t>
+  </si>
+  <si>
+    <t>Implementing a PostGres database and translate JSON files to SQL queries</t>
+  </si>
+  <si>
+    <t>Look into and implement actionlisteners</t>
+  </si>
+  <si>
+    <t>Look for a second time into the Spring framework and move the code that we have so far into the Spring framework. I will also look for alternatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look at all the features and determine how much CO2 our users can save when </t>
+  </si>
+  <si>
+    <t>Further working on GUI application</t>
+  </si>
+  <si>
+    <t>Furter testing the GUI and also working on the GUI login</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Jari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johannes </t>
+  </si>
+  <si>
+    <t>Lukas</t>
+  </si>
+  <si>
+    <t>Ardy</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>When trying to implement the server and the client with the Spring framework, we encountered a lot of problems when trying to expand on the basic tutorial. Particularly, the person responsible for the task could not understand how to get the http communication to work</t>
+  </si>
+  <si>
+    <t>not yet</t>
   </si>
 </sst>
 </file>
@@ -202,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -275,6 +293,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,10 +659,10 @@
     <tabColor rgb="FFF6B26B"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z987"/>
+  <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F21:F23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -685,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
@@ -744,7 +768,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -776,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -900,29 +924,25 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="39.6">
+    <row r="9" spans="1:26" ht="52.8">
       <c r="A9" s="1"/>
-      <c r="B9" s="20" t="s">
-        <v>19</v>
+      <c r="B9" s="29" t="s">
+        <v>22</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>20</v>
+      <c r="C9" s="29" t="s">
+        <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
+      <c r="D9" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="E9" s="21">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="30">
         <v>4</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -944,27 +964,23 @@
     </row>
     <row r="10" spans="1:26" ht="39.6">
       <c r="A10" s="1"/>
-      <c r="B10" s="20" t="s">
-        <v>19</v>
+      <c r="B10" s="29" t="s">
+        <v>23</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>22</v>
+      <c r="C10" s="29" t="s">
+        <v>28</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
+      <c r="D10" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="21">
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="30">
         <v>4</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -984,29 +1000,27 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="39.6">
+    <row r="11" spans="1:26" ht="92.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="20" t="s">
-        <v>19</v>
+      <c r="B11" s="29" t="s">
+        <v>18</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>25</v>
+      <c r="C11" s="29" t="s">
+        <v>29</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
+      <c r="D11" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="E11" s="21">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="30">
         <v>4</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>30</v>
+      <c r="G11" s="21" t="s">
+        <v>40</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="H11" s="21"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1026,15 +1040,25 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="13.2">
+    <row r="12" spans="1:26" ht="66">
       <c r="A12" s="1"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="21"/>
+      <c r="B12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="21">
+        <v>4</v>
+      </c>
+      <c r="F12" s="30">
+        <v>4</v>
+      </c>
       <c r="G12" s="21"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1054,15 +1078,25 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="13.2">
+    <row r="13" spans="1:26" ht="26.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="1"/>
+      <c r="B13" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="21">
+        <v>4</v>
+      </c>
+      <c r="F13" s="30">
+        <v>4</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1082,17 +1116,25 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="45.6">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23" t="s">
-        <v>11</v>
+    <row r="14" spans="1:26" ht="39.6">
+      <c r="A14" s="1"/>
+      <c r="B14" s="29" t="s">
+        <v>26</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="22"/>
+      <c r="C14" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="21">
+        <v>4</v>
+      </c>
+      <c r="F14" s="21">
+        <v>4</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1114,7 +1156,7 @@
     </row>
     <row r="15" spans="1:26" ht="13.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="20"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1140,19 +1182,17 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="13.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="26" t="s">
-        <v>12</v>
+    <row r="16" spans="1:26" ht="45.6">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23" t="s">
+        <v>11</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="1"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1172,14 +1212,10 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="105.6">
+    <row r="17" spans="1:26" ht="13.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
@@ -1204,13 +1240,13 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="26.4">
+    <row r="18" spans="1:26" ht="13.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="27" t="s">
-        <v>14</v>
+      <c r="B18" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1236,10 +1272,14 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="13.2">
+    <row r="19" spans="1:26" ht="198">
       <c r="A19" s="1"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
@@ -1264,17 +1304,17 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="45.6">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23" t="s">
-        <v>15</v>
+    <row r="20" spans="1:26" ht="13.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="27" t="s">
+        <v>14</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="22"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1294,11 +1334,9 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="26.4">
+    <row r="21" spans="1:26" ht="13.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B21" s="28"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1324,15 +1362,17 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="13.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="1"/>
+    <row r="22" spans="1:26" ht="45.6">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1352,9 +1392,11 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="13.2">
+    <row r="23" spans="1:26" ht="26.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -28372,28 +28414,84 @@
       <c r="Y987" s="1"/>
       <c r="Z987" s="1"/>
     </row>
+    <row r="988" spans="1:26" ht="13.2">
+      <c r="A988" s="1"/>
+      <c r="B988" s="2"/>
+      <c r="C988" s="2"/>
+      <c r="D988" s="3"/>
+      <c r="E988" s="3"/>
+      <c r="F988" s="4"/>
+      <c r="G988" s="4"/>
+      <c r="H988" s="1"/>
+      <c r="I988" s="1"/>
+      <c r="J988" s="1"/>
+      <c r="K988" s="1"/>
+      <c r="L988" s="1"/>
+      <c r="M988" s="1"/>
+      <c r="N988" s="1"/>
+      <c r="O988" s="1"/>
+      <c r="P988" s="1"/>
+      <c r="Q988" s="1"/>
+      <c r="R988" s="1"/>
+      <c r="S988" s="1"/>
+      <c r="T988" s="1"/>
+      <c r="U988" s="1"/>
+      <c r="V988" s="1"/>
+      <c r="W988" s="1"/>
+      <c r="X988" s="1"/>
+      <c r="Y988" s="1"/>
+      <c r="Z988" s="1"/>
+    </row>
+    <row r="989" spans="1:26" ht="13.2">
+      <c r="A989" s="1"/>
+      <c r="B989" s="2"/>
+      <c r="C989" s="2"/>
+      <c r="D989" s="3"/>
+      <c r="E989" s="3"/>
+      <c r="F989" s="4"/>
+      <c r="G989" s="4"/>
+      <c r="H989" s="1"/>
+      <c r="I989" s="1"/>
+      <c r="J989" s="1"/>
+      <c r="K989" s="1"/>
+      <c r="L989" s="1"/>
+      <c r="M989" s="1"/>
+      <c r="N989" s="1"/>
+      <c r="O989" s="1"/>
+      <c r="P989" s="1"/>
+      <c r="Q989" s="1"/>
+      <c r="R989" s="1"/>
+      <c r="S989" s="1"/>
+      <c r="T989" s="1"/>
+      <c r="U989" s="1"/>
+      <c r="V989" s="1"/>
+      <c r="W989" s="1"/>
+      <c r="X989" s="1"/>
+      <c r="Y989" s="1"/>
+      <c r="Z989" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F8 H8 G1:G987">
+  <conditionalFormatting sqref="F8 H8 G1:G989">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 H8 G1:G987">
+  <conditionalFormatting sqref="F8 H8 G1:G989">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 H8 G1:G987">
+  <conditionalFormatting sqref="F8 H8 G1:G989">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 H8 G1:G987">
+  <conditionalFormatting sqref="F8 H8 G1:G989">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 H8 G1:G987">
+  <conditionalFormatting sqref="F8 H8 G1:G989">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"E"</formula>
     </cfRule>
